--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17625" windowHeight="10680" activeTab="3"/>
+    <workbookView windowWidth="12525" windowHeight="10080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,12 @@
     <t>圣殿卫士</t>
   </si>
   <si>
+    <t>修女</t>
+  </si>
+  <si>
     <t>狡诈学徒</t>
   </si>
   <si>
-    <t>天使琼浆</t>
-  </si>
-  <si>
     <t>黑夜突袭</t>
   </si>
   <si>
@@ -158,12 +158,12 @@
     <t>魔力风暴</t>
   </si>
   <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
     <t>黑旗舰队飞斧手</t>
   </si>
   <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
     <t>烈日大祭师</t>
   </si>
   <si>
@@ -173,33 +173,36 @@
     <t>学仆-观测型</t>
   </si>
   <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
     <t>沉重否定</t>
   </si>
   <si>
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>虚化术</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
     <t>学仆-脉冲型</t>
   </si>
   <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
     <t>缄言法师</t>
   </si>
   <si>
@@ -207,9 +210,6 @@
   </si>
   <si>
     <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
   </si>
   <si>
     <t>曙光·安娜贝尔</t>
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1435,7 +1435,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17.9166666666667</v>
+        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1616,7 +1616,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>17.3636363636364</v>
+        <v>17.4545454545455</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1739,7 +1739,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.2857142857143</v>
+        <v>16.4285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1750,7 +1750,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.3333333333333</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -1765,8 +1765,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1842,12 +1842,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1870,26 +1870,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1926,56 +1926,64 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
@@ -1984,49 +1992,41 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>AVERAGE(D2:D14)</f>
-        <v>16.9230769230769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>17</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>AVERAGE(D2:D15)</f>
+        <v>17.2142857142857</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -2035,12 +2035,12 @@
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2144,8 +2144,8 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>AVERAGE(D20:D28)</f>
-        <v>16.5555555555556</v>
+        <f>AVERAGE(D21:D28)</f>
+        <v>17.25</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2173,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2282,7 +2282,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>16</v>
+        <v>16.125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2292,8 +2292,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.5666666666667</v>
+        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
+        <v>16.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2308,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2399,18 +2399,18 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2427,12 +2427,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2469,14 +2469,22 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -2485,35 +2493,27 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>17</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -2522,26 +2522,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -2550,26 +2550,26 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -2578,12 +2578,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2701,8 +2701,8 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
-        <v>16.2307692307692</v>
+        <f>AVERAGE(D18:D29)</f>
+        <v>16.4166666666667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2825,7 +2825,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16</v>
+        <v>16.1428571428571</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2835,8 +2835,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>16.5666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
+        <v>16.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2851,8 +2851,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2928,12 +2928,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2942,12 +2942,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2961,37 +2961,45 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -3000,35 +3008,27 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <f>AVERAGE(D2:D9)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>20</v>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>AVERAGE(D2:D10)</f>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -3037,12 +3037,12 @@
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -3051,26 +3051,26 @@
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3107,26 +3107,26 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -3135,12 +3135,12 @@
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3245,8 +3245,8 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D15:D29)</f>
-        <v>14.8</v>
+        <f>AVERAGE(D16:D29)</f>
+        <v>15.1428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3260,7 +3260,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3369,7 +3369,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16</v>
+        <v>16.1428571428571</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3379,8 +3379,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D9,D15:D29,D35:D41)</f>
-        <v>15.5333333333333</v>
+        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
+        <v>15.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3394,8 +3394,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3440,13 +3440,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>18.8571428571429</v>
+        <v>19.2857142857143</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -3634,7 +3634,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C35" s="3">
         <f>AVERAGE(C27:C32)</f>
-        <v>16.5</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3723,14 +3723,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>17.7619047619048</v>
+        <v>17.952380952381</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3741,7 +3741,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3792,12 +3792,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -3844,55 +3844,55 @@
         <v>41</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>15.75</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>15.8888888888889</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3946,8 +3946,8 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
-        <v>14.8</v>
+        <f>AVERAGE(C16:C19)</f>
+        <v>15.75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4002,8 +4002,8 @@
         <v>68</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>15.2666666666667</v>
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
+        <v>15.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4017,8 +4017,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4084,59 +4084,59 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>14.25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>14</v>
-      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>13.8</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4147,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4158,23 +4158,23 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4191,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4234,8 +4234,8 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C11:C20)</f>
-        <v>13.3</v>
+        <f>AVERAGE(C12:C20)</f>
+        <v>13.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4279,8 +4279,8 @@
         <v>70</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>13.5333333333333</v>
+        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
+        <v>13.6666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12525" windowHeight="10080" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -2851,8 +2851,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="O947" sqref="O947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3730,7 +3730,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C38 C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1435,7 +1435,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>18.1666666666667</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1616,7 +1616,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>17.4545454545455</v>
+        <v>17.5454545454545</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1750,7 +1750,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
@@ -1765,8 +1765,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1884,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2007,7 +2007,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>17.2142857142857</v>
+        <v>17.4285714285714</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2145,7 +2145,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D21:D28)</f>
-        <v>17.25</v>
+        <v>17.375</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2293,7 +2293,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>16.9333333333333</v>
+        <v>17.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2851,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O947" sqref="O947"/>
     </sheetView>
   </sheetViews>
@@ -3394,7 +3394,7 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -3730,7 +3730,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3741,7 +3741,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3814,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3847,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>15.8888888888889</v>
+        <v>16.2222222222222</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C16:C19)</f>
-        <v>15.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>15.6666666666667</v>
+        <v>15.9333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
+    <workbookView windowWidth="17565" windowHeight="10635" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -155,12 +155,12 @@
     <t>总计：</t>
   </si>
   <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
     <t>魔力风暴</t>
   </si>
   <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
     <t>黑旗舰队飞斧手</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>花剑绅士·翔</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
   </si>
   <si>
     <t>钢之咆哮·布瑞恩</t>
@@ -1222,7 +1225,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1270,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1435,7 +1438,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>18.3333333333333</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1463,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1616,7 +1619,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>17.5454545454545</v>
+        <v>17.6363636363636</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1672,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1739,7 +1742,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.4285714285714</v>
+        <v>16.5714285714286</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1750,7 +1753,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.6</v>
+        <v>17.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1763,10 +1766,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1814,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1828,26 +1831,26 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1861,7 +1864,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1870,26 +1873,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1917,7 +1920,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1926,12 +1929,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1945,13 +1948,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>16</v>
@@ -1959,31 +1962,23 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>18</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
@@ -1992,41 +1987,49 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>AVERAGE(D2:D15)</f>
-        <v>17.4285714285714</v>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>18.0769230769231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -2040,13 +2043,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -2063,26 +2066,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -2091,37 +2094,29 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>13</v>
-      </c>
-      <c r="F28" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
@@ -2130,55 +2125,63 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <f>AVERAGE(D21:D28)</f>
-        <v>17.375</v>
+      <c r="D30" s="2">
+        <f>AVERAGE(D20:D27)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>31</v>
@@ -2187,26 +2190,26 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
@@ -2215,50 +2218,42 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="3">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>16</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3"/>
@@ -2267,33 +2262,27 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D34:D41)</f>
-        <v>16.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="D43" s="3">
+        <f>AVERAGE(D33:D40)</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>17.0666666666667</v>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <f>AVERAGE(D2:D14,D20:D27,D33:D40)</f>
+        <v>17.4137931034483</v>
       </c>
     </row>
   </sheetData>
@@ -2308,8 +2297,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2385,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2413,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2508,7 +2497,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.4545454545455</v>
+        <v>17.6363636363636</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2536,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2620,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2702,7 +2691,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>16.4166666666667</v>
+        <v>16.5833333333333</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2758,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2825,7 +2814,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.1428571428571</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2836,7 +2825,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>16.7333333333333</v>
+        <v>16.9</v>
       </c>
     </row>
   </sheetData>
@@ -2851,8 +2840,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O947" sqref="O947"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2914,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2942,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3023,7 +3012,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>16.3333333333333</v>
+        <v>16.5555555555556</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3070,7 +3059,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -3079,12 +3068,12 @@
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -3093,12 +3082,12 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
@@ -3107,12 +3096,12 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -3121,26 +3110,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -3149,12 +3138,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -3163,21 +3152,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3246,7 +3235,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.1428571428571</v>
+        <v>15.3571428571429</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3302,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3369,7 +3358,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.1428571428571</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3380,7 +3369,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>15.7333333333333</v>
+        <v>15.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3394,8 +3383,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3535,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3623,7 +3612,7 @@
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C14:C21)</f>
-        <v>17.75</v>
+        <v>17.875</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3667,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3711,7 +3700,7 @@
       </c>
       <c r="C35" s="3">
         <f>AVERAGE(C27:C32)</f>
-        <v>16.6666666666667</v>
+        <v>16.8333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3723,14 +3712,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>17.952380952381</v>
+        <v>18.047619047619</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C38 C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3741,7 +3730,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3770,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3781,56 +3770,56 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -3841,92 +3830,86 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>16.2222222222222</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>17.125</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -3934,36 +3917,42 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C16:C19)</f>
-        <v>16</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C15:C18)</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -3990,8 +3979,8 @@
         <v>38</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>14.5</v>
+        <f>AVERAGE(C24:C26)</f>
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3999,11 +3988,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>15.9333333333333</v>
+        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
+        <v>16.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4017,8 +4006,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4047,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4069,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4113,7 +4102,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4180,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4235,12 +4224,12 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>13.6666666666667</v>
+        <v>13.7777777777778</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -4276,11 +4265,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>13.6666666666667</v>
+        <v>13.8666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="10635" activeTab="6"/>
+    <workbookView windowWidth="19245" windowHeight="13380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="73">
   <si>
     <t>名称</t>
   </si>
@@ -86,15 +86,15 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>蒙面侠客·翔</t>
+  </si>
+  <si>
+    <t>夏日女郎·鲍莉</t>
   </si>
   <si>
     <t>学仆-观测型</t>
@@ -1224,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1452,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1550,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1619,7 +1622,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>17.6363636363636</v>
+        <v>17.8181818181818</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1647,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1742,7 +1745,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.5714285714286</v>
+        <v>16.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1753,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.7333333333333</v>
+        <v>17.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1766,10 +1769,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2001,7 +2004,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -2148,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2167,21 +2170,21 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>31</v>
@@ -2190,26 +2193,26 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
@@ -2218,42 +2221,50 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3">
         <v>8</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3"/>
@@ -2262,27 +2273,33 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
-        <f>AVERAGE(D33:D40)</f>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D33:D41)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4">
-        <f>AVERAGE(D2:D14,D20:D27,D33:D40)</f>
-        <v>17.4137931034483</v>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>
@@ -2297,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2365,7 +2382,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2379,7 +2396,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2393,7 +2410,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2407,7 +2424,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2502,7 +2519,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -2516,7 +2533,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -2544,7 +2561,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
@@ -2595,12 +2612,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -2628,7 +2645,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -2656,7 +2673,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -2665,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -2691,7 +2708,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>16.5833333333333</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2719,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2752,7 +2769,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -2761,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2814,7 +2831,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.2857142857143</v>
+        <v>16.5714285714286</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2825,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>16.9</v>
+        <v>17.0333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2840,8 +2857,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2894,7 +2911,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2908,7 +2925,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2922,7 +2939,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2936,7 +2953,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2964,7 +2981,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3031,7 +3048,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -3045,7 +3062,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -3087,7 +3104,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
@@ -3101,7 +3118,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -3115,7 +3132,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -3138,12 +3155,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -3157,7 +3174,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -3171,7 +3188,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -3200,7 +3217,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -3209,7 +3226,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -3235,7 +3252,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.3571428571429</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3263,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3296,7 +3313,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -3305,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3358,7 +3375,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.2857142857143</v>
+        <v>16.5714285714286</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3369,7 +3386,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>15.9333333333333</v>
+        <v>16.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3383,8 +3400,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3401,8 +3418,8 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>8</v>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3513,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3568,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3612,12 +3629,12 @@
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C14:C21)</f>
-        <v>17.875</v>
+        <v>18.125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -3628,18 +3645,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -3650,7 +3667,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
@@ -3661,7 +3678,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3">
         <v>6</v>
@@ -3672,7 +3689,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
@@ -3700,7 +3717,7 @@
       </c>
       <c r="C35" s="3">
         <f>AVERAGE(C27:C32)</f>
-        <v>16.8333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3708,18 +3725,18 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.047619047619</v>
+        <v>18.1904761904762</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3729,8 +3746,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3930,29 +3947,29 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -3980,7 +3997,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
-        <v>13.3333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3988,11 +4005,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>16.1333333333333</v>
+        <v>16.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4006,8 +4023,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4030,7 +4047,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -4041,7 +4058,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4052,7 +4069,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4063,7 +4080,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4074,7 +4091,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4108,7 +4125,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -4119,7 +4136,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -4130,7 +4147,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -4141,7 +4158,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -4152,7 +4169,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4163,7 +4180,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4174,7 +4191,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -4185,7 +4202,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -4196,13 +4213,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4224,18 +4241,18 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>13.7777777777778</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4257,7 +4274,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4265,11 +4282,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>13.8666666666667</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19245" windowHeight="13380" activeTab="4"/>
+    <workbookView windowWidth="15000" windowHeight="11850" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -2314,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2514,7 +2514,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.6363636363636</v>
+        <v>17.7272727272727</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.0333333333333</v>
+        <v>17.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2857,8 +2857,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3029,7 +3029,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>16.5555555555556</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3386,7 +3386,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.0666666666667</v>
+        <v>16.1</v>
       </c>
     </row>
   </sheetData>
@@ -3400,7 +3400,7 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3736,7 +3736,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C38 C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4024,7 +4024,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>14</v>
+        <v>14.0666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15000" windowHeight="11850" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1771,8 +1771,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1932,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1999,7 +1999,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>18.0769230769231</v>
+        <v>18.1538461538462</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2288,7 +2288,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16</v>
+        <v>16.1111111111111</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2299,7 +2299,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
-        <v>17.3</v>
+        <v>17.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2314,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2831,7 +2831,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.5714285714286</v>
+        <v>16.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.0666666666667</v>
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +2858,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3294,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3375,7 +3375,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.5714285714286</v>
+        <v>16.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3386,7 +3386,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.1</v>
+        <v>16.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3400,8 +3400,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3662,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C35" s="3">
         <f>AVERAGE(C27:C32)</f>
-        <v>17</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.1904761904762</v>
+        <v>18.2380952380952</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3746,8 +3746,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3831,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>17.125</v>
+        <v>17.25</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>16.2666666666667</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1227,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1441,7 +1441,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>18.5</v>
+        <v>18.5833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1756,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.8333333333333</v>
+        <v>17.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +1771,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1999,7 +1999,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>18.1538461538462</v>
+        <v>18.3076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2299,7 +2299,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
-        <v>17.3666666666667</v>
+        <v>17.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3736,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C38 C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3746,8 +3746,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>17.25</v>
+        <v>17.5</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>16.3333333333333</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1622,7 +1622,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>17.8181818181818</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1745,7 +1745,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.7142857142857</v>
+        <v>16.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1756,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.8666666666667</v>
+        <v>17.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +1771,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2137,7 +2137,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <f>AVERAGE(D20:D27)</f>
-        <v>17.5</v>
+        <v>17.625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2235,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2288,7 +2288,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16.1111111111111</v>
+        <v>16.2222222222222</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2299,7 +2299,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
-        <v>17.4333333333333</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -2314,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2612,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2708,7 +2708,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>16.75</v>
+        <v>16.9166666666667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.1</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +2858,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3197,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3252,7 +3252,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.5</v>
+        <v>15.6428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3386,7 +3386,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.1333333333333</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3401,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3585,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C14:C21)</f>
-        <v>18.125</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.2380952380952</v>
+        <v>18.2857142857143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3747,7 +3747,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3909,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C15:C18)</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
-        <v>14</v>
+        <v>14.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>16.4666666666667</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4024,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>13.8888888888889</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>14.0666666666667</v>
+        <v>14.1333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1227,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1745,7 +1745,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.8571428571429</v>
+        <v>17.1428571428571</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1756,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.9666666666667</v>
+        <v>18.0333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +1771,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2263,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2288,7 +2288,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16.2222222222222</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2299,7 +2299,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
-        <v>17.5</v>
+        <v>17.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2806,7 +2806,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2831,7 +2831,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.7142857142857</v>
+        <v>16.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.1666666666667</v>
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
@@ -2857,8 +2857,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3375,7 +3375,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.7142857142857</v>
+        <v>16.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3386,7 +3386,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.2</v>
+        <v>16.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3401,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3695,7 +3695,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C35" s="3">
         <f>AVERAGE(C27:C32)</f>
-        <v>17.1666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.2857142857143</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C38 C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4024,7 +4024,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="12270" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>橙色</t>
   </si>
   <si>
-    <t>百花长枪·卡罗琳</t>
+    <t>百花长枪·卡洛琳</t>
   </si>
   <si>
     <t>明日香·露娜</t>
@@ -218,7 +218,7 @@
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
-    <t>圣枪·卡罗琳</t>
+    <t>圣枪·卡洛琳</t>
   </si>
   <si>
     <t>明日之音·露娜</t>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1772,7 +1772,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2314,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
@@ -2857,8 +2857,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3401,7 +3401,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12270" windowHeight="8820" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1227,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1706,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1745,7 +1745,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17.1428571428571</v>
+        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1756,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>18.0333333333333</v>
+        <v>18.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1772,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2249,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2288,7 +2288,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16.3333333333333</v>
+        <v>16.4444444444444</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2299,7 +2299,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
-        <v>17.5333333333333</v>
+        <v>17.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2314,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2792,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2831,7 +2831,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.8571428571429</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.2</v>
+        <v>17.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +2858,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B38:C39"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3336,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3375,7 +3375,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16.8571428571429</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3386,7 +3386,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.2333333333333</v>
+        <v>16.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3401,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3684,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C35" s="3">
         <f>AVERAGE(C27:C32)</f>
-        <v>17.3333333333333</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.3333333333333</v>
+        <v>18.3809523809524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -1227,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1441,7 +1441,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>18.5833333333333</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1756,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>18.0666666666667</v>
+        <v>18.1</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2514,7 +2514,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.7272727272727</v>
+        <v>17.8181818181818</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.2333333333333</v>
+        <v>17.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3400,8 +3400,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3496,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>19.2857142857143</v>
+        <v>19.4285714285714</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.3809523809524</v>
+        <v>18.4285714285714</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C38 C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -1227,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>18</v>
+        <v>18.0909090909091</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1756,7 +1756,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>18.1</v>
+        <v>18.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2640,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2708,7 +2708,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>16.9166666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2842,7 +2842,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.2666666666667</v>
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>
@@ -3400,8 +3400,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3596,7 +3596,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C14:C21)</f>
-        <v>18.25</v>
+        <v>18.375</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3729,14 +3729,14 @@
       </c>
       <c r="C38" s="4">
         <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.4285714285714</v>
+        <v>18.4761904761905</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C38 C11" formulaRange="1"/>
+    <ignoredError sqref="C11 C38" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="14940" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -56,12 +56,6 @@
     <t>心灵黑洞</t>
   </si>
   <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>修女</t>
-  </si>
-  <si>
     <t>狡诈学徒</t>
   </si>
   <si>
@@ -74,6 +68,9 @@
     <t>热血矿工</t>
   </si>
   <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -119,24 +116,27 @@
     <t>禁卫百夫长</t>
   </si>
   <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
+    <t>蒙面侠客·翔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
     <t>花光春影·安娜贝尔</t>
   </si>
   <si>
-    <t>橙色</t>
-  </si>
-  <si>
     <t>百花长枪·卡洛琳</t>
   </si>
   <si>
     <t>明日香·露娜</t>
   </si>
   <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
     <t>永恒之王·莱哈特</t>
   </si>
   <si>
@@ -155,24 +155,18 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>魔力风暴</t>
+    <t>不法交易</t>
   </si>
   <si>
     <t>黑旗舰队飞斧手</t>
   </si>
   <si>
-    <t>烈日大祭师</t>
-  </si>
-  <si>
-    <t>蒙面侠客·翔</t>
-  </si>
-  <si>
     <t>夏日女郎·鲍莉</t>
   </si>
   <si>
+    <t>蔚蓝幻梦·卡洛琳</t>
+  </si>
+  <si>
     <t>学仆-观测型</t>
   </si>
   <si>
@@ -182,9 +176,18 @@
     <t>沉重否定</t>
   </si>
   <si>
+    <t>虚化术</t>
+  </si>
+  <si>
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>缄言法师</t>
+  </si>
+  <si>
     <t>幻域秘树</t>
   </si>
   <si>
@@ -197,18 +200,9 @@
     <t>月之神·米拉</t>
   </si>
   <si>
-    <t>虚化术</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
     <t>学仆-脉冲型</t>
   </si>
   <si>
-    <t>缄言法师</t>
-  </si>
-  <si>
     <t>魔像-御咒铁卫</t>
   </si>
   <si>
@@ -240,6 +234,9 @@
   </si>
   <si>
     <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
   </si>
   <si>
     <t>钢之咆哮·布瑞恩</t>
@@ -1227,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1315,10 +1312,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1329,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
@@ -1343,10 +1340,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1385,15 +1382,15 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1406,18 +1403,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1426,36 +1415,44 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>18.6666666666667</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1463,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1477,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1491,10 +1488,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
@@ -1505,13 +1502,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1519,13 +1516,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1533,13 +1530,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1547,96 +1544,95 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <f>AVERAGE(D18:D27)</f>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D19:D29)</f>
-        <v>18.0909090909091</v>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1644,13 +1640,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1658,13 +1654,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1672,7 +1668,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -1686,7 +1682,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -1700,7 +1696,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -1714,7 +1710,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -1737,15 +1733,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>17.2857142857143</v>
+        <f>AVERAGE(D33:D41)</f>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1755,8 +1751,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>18.1333333333333</v>
+        <f>AVERAGE(D2:D12,D18:D27,D33:D41)</f>
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1853,7 +1849,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1862,26 +1858,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1895,7 +1891,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1909,7 +1905,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1932,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1943,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <v>17</v>
@@ -1951,31 +1947,23 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>18</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -1984,22 +1972,30 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>AVERAGE(D2:D14)</f>
-        <v>18.3076923076923</v>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>18.1666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2007,13 +2003,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2021,7 +2017,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -2035,10 +2031,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
@@ -2049,24 +2045,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
         <v>18</v>
@@ -2074,10 +2070,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -2086,12 +2082,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -2099,21 +2095,13 @@
       <c r="D26" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
@@ -2122,64 +2110,72 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="D29" s="2">
+        <f>AVERAGE(D19:D26)</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <f>AVERAGE(D20:D27)</f>
-        <v>17.625</v>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2187,13 +2183,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2201,13 +2197,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2215,7 +2211,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -2229,7 +2225,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2243,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -2257,7 +2253,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -2280,15 +2276,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D33:D41)</f>
-        <v>16.4444444444444</v>
+        <f>AVERAGE(D32:D41)</f>
+        <v>16.3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2298,7 +2294,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D14,D20:D27,D33:D41)</f>
+        <f>AVERAGE(D2:D13,D19:D26,D32:D41)</f>
         <v>17.5666666666667</v>
       </c>
     </row>
@@ -2314,8 +2310,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2354,7 +2350,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2363,12 +2359,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2377,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2391,12 +2387,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2405,40 +2401,40 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2447,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2458,15 +2454,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2479,18 +2475,10 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>18</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -2499,30 +2487,38 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>17.8181818181818</v>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2533,30 +2529,30 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2564,21 +2560,21 @@
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -2589,94 +2585,94 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
@@ -2700,15 +2696,15 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D18:D29)</f>
-        <v>17</v>
+        <f>AVERAGE(D17:D29)</f>
+        <v>16.5384615384615</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2716,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -2727,10 +2723,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -2741,10 +2737,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -2758,7 +2754,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -2769,10 +2765,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2786,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -2800,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -2823,7 +2819,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
@@ -2841,8 +2837,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.3</v>
+        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
+        <v>16.7666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2857,8 +2853,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2897,7 +2893,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2906,12 +2902,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2920,12 +2916,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2934,12 +2930,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2948,26 +2944,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2981,7 +2977,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2990,12 +2986,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3021,206 +3017,205 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>16.6666666666667</v>
+        <v>16.7777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
@@ -3244,15 +3239,15 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.6428571428571</v>
+        <v>15.7857142857143</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3260,7 +3255,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -3271,10 +3266,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -3285,10 +3280,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -3302,7 +3297,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -3313,10 +3308,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -3330,7 +3325,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -3344,7 +3339,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -3367,7 +3362,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
@@ -3386,7 +3381,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.2666666666667</v>
+        <v>16.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3398,10 +3393,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3435,10 +3430,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -3446,10 +3441,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -3457,13 +3452,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3471,272 +3466,239 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>19.2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.4285714285714</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+        <f>AVERAGE(C12:C18)</f>
+        <v>18.7142857142857</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C14:C21)</f>
-        <v>18.375</v>
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>18</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>18</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="3">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <f>AVERAGE(C24:C29)</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="3">
-        <f>AVERAGE(C27:C32)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="4">
-        <f>AVERAGE(C2:C8,C14:C21,C27:C32)</f>
-        <v>18.4761904761905</v>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
+        <v>18.4444444444444</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C38" formulaRange="1"/>
+    <ignoredError sqref="C35 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3746,8 +3708,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3792,7 +3754,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -3803,7 +3765,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -3814,7 +3776,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -3825,35 +3787,35 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3868,10 +3830,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
@@ -3881,7 +3843,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -3892,7 +3854,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -3903,7 +3865,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -3913,15 +3875,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -3929,47 +3885,53 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
-        <v>16.5</v>
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C15:C17)</f>
+        <v>17.3333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -3990,14 +3952,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>14.3333333333333</v>
+        <f>AVERAGE(C23:C26)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4005,11 +3967,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>16.6</v>
+        <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
+        <v>16.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4023,8 +3985,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4047,7 +4009,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -4058,7 +4020,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4069,7 +4031,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4080,7 +4042,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4091,13 +4053,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4112,20 +4074,20 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -4136,7 +4098,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -4147,7 +4109,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -4158,7 +4120,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -4169,7 +4131,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4180,7 +4142,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4191,7 +4153,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -4202,7 +4164,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -4213,7 +4175,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
@@ -4234,10 +4196,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
@@ -4246,7 +4208,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -4267,7 +4229,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>38</v>
@@ -4282,11 +4244,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>14.1333333333333</v>
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="9345" activeTab="3"/>
+    <workbookView windowWidth="15420" windowHeight="10515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1590,7 +1590,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <f>AVERAGE(D18:D27)</f>
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1752,7 +1752,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D27,D33:D41)</f>
-        <v>17.9</v>
+        <v>17.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2310,8 +2310,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2704,7 +2704,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D17:D29)</f>
-        <v>16.5384615384615</v>
+        <v>16.6153846153846</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2838,7 +2838,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>16.7666666666667</v>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
@@ -2853,8 +2853,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3247,7 +3247,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.7857142857143</v>
+        <v>15.8571428571429</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3381,7 +3381,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.3666666666667</v>
+        <v>16.4</v>
       </c>
     </row>
   </sheetData>
@@ -3395,8 +3395,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C12:C18)</f>
-        <v>18.7142857142857</v>
+        <v>18.8571428571429</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3691,14 +3691,14 @@
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>18.4444444444444</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C35 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="10515" activeTab="4"/>
+    <workbookView windowWidth="15420" windowHeight="10515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1767,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1995,26 +1995,26 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -2051,26 +2051,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -2079,12 +2079,12 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -2093,15 +2093,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
         <v>15</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
@@ -2110,49 +2118,41 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <f>AVERAGE(D19:D26)</f>
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>16</v>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <f>AVERAGE(D19:D27)</f>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>29</v>
@@ -2161,26 +2161,26 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
@@ -2189,12 +2189,12 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -2203,26 +2203,26 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -2231,35 +2231,35 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2283,8 +2283,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D32:D41)</f>
-        <v>16.3</v>
+        <f>AVERAGE(D33:D41)</f>
+        <v>16.2222222222222</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2294,8 +2294,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D26,D32:D41)</f>
-        <v>17.5666666666667</v>
+        <f>AVERAGE(D2:D13,D19:D27,D33:D41)</f>
+        <v>17.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3395,7 +3395,7 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3698,7 +3698,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C35" formulaRange="1"/>
+    <ignoredError sqref="C35 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="10515" activeTab="1"/>
+    <workbookView windowWidth="15420" windowHeight="10515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
     <sheet name="亚芬戴克斯" sheetId="2" r:id="rId2"/>
     <sheet name="伊萝莲" sheetId="3" r:id="rId3"/>
     <sheet name="阿斯塔拉" sheetId="4" r:id="rId4"/>
-    <sheet name="帝国" sheetId="5" r:id="rId5"/>
-    <sheet name="港口" sheetId="6" r:id="rId6"/>
-    <sheet name="隐秘" sheetId="7" r:id="rId7"/>
+    <sheet name="梅" sheetId="9" r:id="rId5"/>
+    <sheet name="帝国" sheetId="5" r:id="rId6"/>
+    <sheet name="港口" sheetId="6" r:id="rId7"/>
+    <sheet name="隐秘" sheetId="7" r:id="rId8"/>
+    <sheet name="禅意谷" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="86">
   <si>
     <t>名称</t>
   </si>
@@ -209,6 +211,45 @@
     <t>学仆-塑钢型</t>
   </si>
   <si>
+    <t>拒马</t>
+  </si>
+  <si>
+    <t>苦行武僧</t>
+  </si>
+  <si>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
@@ -249,6 +290,9 @@
   </si>
   <si>
     <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1811,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -2853,8 +2897,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3391,6 +3435,559 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>AVERAGE(D2:D15)</f>
+        <v>13.2857142857143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>19</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <f>AVERAGE(D21:D30)</f>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D36:D41)</f>
+        <v>16.1666666666667</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>AVERAGE(D2:D15,D21:D30,D36:D41)</f>
+        <v>14.4666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
@@ -3596,7 +4193,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -3607,7 +4204,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -3618,7 +4215,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -3629,7 +4226,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -3640,7 +4237,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -3651,7 +4248,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
@@ -3687,7 +4284,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
@@ -3698,18 +4295,18 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C35 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3898,7 +4495,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -3909,7 +4506,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -3920,7 +4517,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -3931,7 +4528,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -3967,7 +4564,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
@@ -3980,12 +4577,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
@@ -4208,7 +4805,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -4244,11 +4841,294 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
         <v>14.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>10.8</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C17:C20)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C11,C17:C20,C26:C26)</f>
+        <v>10.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="10515" activeTab="4"/>
+    <workbookView windowWidth="12600" windowHeight="11745" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>沉重否定</t>
   </si>
   <si>
-    <t>虚化术</t>
+    <t>全数否定</t>
   </si>
   <si>
     <t>破魔系教授</t>
@@ -2354,8 +2354,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2487,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2540,7 +2540,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2748,7 +2748,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D17:D29)</f>
-        <v>16.6153846153846</v>
+        <v>16.6923076923077</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2882,7 +2882,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>16.8</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2897,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3069,7 +3069,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>16.7777777777778</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3291,7 +3291,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.8571428571429</v>
+        <v>15.9285714285714</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3425,7 +3425,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3439,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -3684,8 +3684,6 @@
         <v>13.2857142857143</v>
       </c>
     </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>18</v>
@@ -3857,8 +3855,6 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>30</v>
@@ -3968,8 +3964,6 @@
         <v>16.1666666666667</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>39</v>
@@ -4295,7 +4289,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C35" formulaRange="1"/>
+    <ignoredError sqref="C35 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4583,7 +4577,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4656,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4678,7 +4672,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>14.6</v>
+        <v>15.6</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4723,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4800,7 +4794,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>14</v>
+        <v>14.1111111111111</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4845,7 +4839,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
     </row>
   </sheetData>
@@ -5014,8 +5008,6 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>66</v>
@@ -5082,8 +5074,6 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>85</v>
@@ -5117,8 +5107,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>39</v>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12600" windowHeight="11745" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -2354,7 +2354,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -3986,8 +3986,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4226,7 +4226,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C32" s="3">
         <f>AVERAGE(C24:C29)</f>
-        <v>17.5</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4282,14 +4282,14 @@
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>18.5</v>
+        <v>18.5555555555556</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C35 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="14175" windowHeight="11475" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1468,7 +1468,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.5454545454545</v>
+        <v>18.7272727272727</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1785,7 +1785,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16.6666666666667</v>
+        <v>16.8888888888889</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1796,7 +1796,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D27,D33:D41)</f>
-        <v>17.9333333333333</v>
+        <v>18.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1811,8 +1811,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2025,7 +2025,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>18.1666666666667</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2205,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2275,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2328,7 +2328,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16.2222222222222</v>
+        <v>16.4444444444444</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2339,7 +2339,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D27,D33:D41)</f>
-        <v>17.6333333333333</v>
+        <v>17.7666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2355,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2403,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2540,7 +2540,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2871,7 +2871,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17</v>
+        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2882,7 +2882,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17</v>
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2898,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3069,7 +3069,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>17.3333333333333</v>
+        <v>17.4444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3305,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3347,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3414,7 +3414,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17</v>
+        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3425,7 +3425,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -3439,8 +3439,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3866,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3922,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3961,7 +3961,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>16.1666666666667</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3972,7 +3972,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D15,D21:D30,D36:D41)</f>
-        <v>14.4666666666667</v>
+        <v>14.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3986,8 +3986,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4193,7 +4193,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C32" s="3">
         <f>AVERAGE(C24:C29)</f>
-        <v>17.6666666666667</v>
+        <v>17.8333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4282,14 +4282,14 @@
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>18.5555555555556</v>
+        <v>18.6111111111111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C35" formulaRange="1"/>
+    <ignoredError sqref="C35 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4300,7 +4300,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4329,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4362,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
-        <v>16.6666666666667</v>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
@@ -4577,7 +4577,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4606,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>14.6</v>
+        <v>14.6666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14175" windowHeight="11475" activeTab="4"/>
+    <workbookView windowWidth="14490" windowHeight="13245" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="85">
   <si>
     <t>名称</t>
   </si>
@@ -130,15 +130,15 @@
     <t>花光春影·安娜贝尔</t>
   </si>
   <si>
+    <t>夏日女郎·鲍莉</t>
+  </si>
+  <si>
     <t>百花长枪·卡洛琳</t>
   </si>
   <si>
     <t>明日香·露娜</t>
   </si>
   <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
     <t>永恒之王·莱哈特</t>
   </si>
   <si>
@@ -157,16 +157,16 @@
     <t>总计：</t>
   </si>
   <si>
+    <t>黑金勒索者</t>
+  </si>
+  <si>
     <t>不法交易</t>
   </si>
   <si>
     <t>黑旗舰队飞斧手</t>
   </si>
   <si>
-    <t>夏日女郎·鲍莉</t>
-  </si>
-  <si>
-    <t>蔚蓝幻梦·卡洛琳</t>
+    <t>春花使者·卡洛琳</t>
   </si>
   <si>
     <t>学仆-观测型</t>
@@ -181,30 +181,33 @@
     <t>全数否定</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>破魔系教授</t>
   </si>
   <si>
     <t>克隆术</t>
   </si>
   <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
     <t>缄言法师</t>
   </si>
   <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
     <t>魔像-御咒铁卫</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>苦行武僧</t>
   </si>
   <si>
-    <t>飓风术</t>
-  </si>
-  <si>
     <t>龟族僧人</t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>蟠桃会</t>
   </si>
   <si>
-    <t>春花使者·卡洛琳</t>
+    <t>萌化术</t>
   </si>
   <si>
     <t>上宝沁金耙</t>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>赤影·艾希尔</t>
   </si>
   <si>
     <t>钢之咆哮·布瑞恩</t>
@@ -1268,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1429,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1468,7 +1465,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.7272727272727</v>
+        <v>18.8181818181818</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1482,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1552,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1580,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1608,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1634,7 +1631,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <f>AVERAGE(D18:D27)</f>
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1673,10 +1670,10 @@
         <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1690,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1704,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1732,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1760,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1785,7 +1782,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>16.8888888888889</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1796,7 +1793,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D27,D33:D41)</f>
-        <v>18.0666666666667</v>
+        <v>18.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1811,8 +1808,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1907,21 +1904,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1949,7 +1946,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1963,7 +1960,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1972,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1983,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>17</v>
@@ -1991,23 +1988,31 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -2016,35 +2021,27 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>18.3333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>19</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>18.1538461538462</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2053,26 +2050,26 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -2086,13 +2083,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2109,26 +2106,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -2137,12 +2134,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -2151,15 +2148,23 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
         <v>15</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
@@ -2168,49 +2173,41 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <f>AVERAGE(D19:D27)</f>
-        <v>18.3333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>16</v>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <f>AVERAGE(D20:D28)</f>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
@@ -2219,26 +2216,26 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -2247,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2261,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2289,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2327,8 +2324,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D33:D41)</f>
-        <v>16.4444444444444</v>
+        <f>AVERAGE(D34:D41)</f>
+        <v>17.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2338,8 +2335,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D27,D33:D41)</f>
-        <v>17.7666666666667</v>
+        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
+        <v>18.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2354,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2492,16 +2489,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2515,14 +2512,22 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -2531,35 +2536,27 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>19</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -2568,26 +2565,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2596,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2610,26 +2607,26 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -2638,12 +2635,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2652,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2666,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2680,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2694,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2747,8 +2744,8 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
-        <v>16.6923076923077</v>
+        <f>AVERAGE(D18:D29)</f>
+        <v>17.4166666666667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2767,7 +2764,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
@@ -2776,12 +2773,12 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -2818,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2846,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2871,7 +2868,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17.2857142857143</v>
+        <v>17.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2881,8 +2878,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17.1</v>
+        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2894,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3035,23 +3032,31 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -3060,30 +3065,22 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <f>AVERAGE(D2:D10)</f>
-        <v>17.4444444444444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>19</v>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>17.4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3102,7 +3099,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -3111,12 +3108,12 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -3125,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3153,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3172,7 +3169,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3186,7 +3183,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -3195,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3209,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3223,12 +3220,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -3290,8 +3287,8 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D16:D29)</f>
-        <v>15.9285714285714</v>
+        <f>AVERAGE(D17:D29)</f>
+        <v>16.1538461538462</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3310,7 +3307,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
@@ -3319,12 +3316,12 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -3361,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3389,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3414,7 +3411,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17.2857142857143</v>
+        <v>17.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3424,8 +3421,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.7</v>
+        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
+        <v>16.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3439,8 +3436,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3493,7 +3490,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3507,21 +3504,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3535,7 +3532,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3544,12 +3541,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3558,12 +3555,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3586,18 +3583,18 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>12</v>
@@ -3605,7 +3602,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3619,102 +3616,102 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>15.0833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>AVERAGE(D2:D15)</f>
-        <v>13.2857142857143</v>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3723,41 +3720,43 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
         <v>19</v>
       </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -3766,13 +3765,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -3781,13 +3780,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -3796,13 +3795,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -3811,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -3826,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -3851,8 +3850,8 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <f>AVERAGE(D21:D30)</f>
-        <v>15.1</v>
+        <f>AVERAGE(D19:D30)</f>
+        <v>15.6666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3871,7 +3870,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -3880,12 +3879,12 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -3908,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3961,7 +3960,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>16.5</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3971,8 +3970,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D15,D21:D30,D36:D41)</f>
-        <v>14.5333333333333</v>
+        <f>AVERAGE(D2:D13,D19:D30,D36:D41)</f>
+        <v>15.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3984,10 +3983,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4043,13 +4042,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4060,71 +4059,71 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>19.2</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19</v>
-      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>18.8333333333333</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -4132,41 +4131,47 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -4174,87 +4179,87 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>18.8571428571429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>18</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C13:C19)</f>
+        <v>19.4285714285714</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>8</v>
       </c>
-      <c r="C29" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -4262,34 +4267,39 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C24:C29)</f>
-        <v>17.8333333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="C33" s="3">
+        <f>AVERAGE(C25:C30)</f>
+        <v>18.1666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>18.6111111111111</v>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
+        <v>18.8421052631579</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C35 C9" formulaRange="1"/>
+    <ignoredError sqref="C10 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4299,561 +4309,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>17.75</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C15:C17)</f>
-        <v>17.3333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C23:C26)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
-        <v>16.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>15.8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C12:C20)</f>
-        <v>14.1111111111111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>14.6666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -4877,54 +4333,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>13</v>
@@ -4932,124 +4388,401 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>10.8</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>17.4444444444444</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>17.3333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>15.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
+        <v>17.0666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>15.8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5070,19 +4803,19 @@
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C17:C20)</f>
-        <v>9.5</v>
+        <f>AVERAGE(C12:C20)</f>
+        <v>14.5555555555556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5104,7 +4837,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5112,11 +4845,288 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C11,C17:C20,C26:C26)</f>
-        <v>10.3333333333333</v>
+        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>12.75</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C15:C20)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14490" windowHeight="13245" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="15450" windowHeight="13665" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -3986,7 +3986,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>19.4285714285714</v>
+        <v>19.5714285714286</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>18.1666666666667</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4292,14 +4292,14 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
-        <v>18.8421052631579</v>
+        <v>18.9473684210526</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C10 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4309,8 +4309,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4472,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C16:C18)</f>
-        <v>17.3333333333333</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
-        <v>17.0666666666667</v>
+        <v>17.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4586,8 +4586,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15450" windowHeight="13665" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="15450" windowHeight="12795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1265,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1563,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1631,7 +1631,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <f>AVERAGE(D18:D27)</f>
-        <v>18.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1782,7 +1782,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>17.3333333333333</v>
+        <v>17.4444444444444</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1793,7 +1793,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D27,D33:D41)</f>
-        <v>18.3666666666667</v>
+        <v>18.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1808,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2148,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2188,7 +2188,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D20:D28)</f>
-        <v>18.6666666666667</v>
+        <v>18.8888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2325,7 +2325,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>17.25</v>
+        <v>17.375</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2336,7 +2336,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>18.0666666666667</v>
+        <v>18.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2351,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2745,7 +2745,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>17.4166666666667</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2868,7 +2868,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17.7142857142857</v>
+        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2879,7 +2879,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.5</v>
+        <v>17.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2894,8 +2894,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3411,7 +3411,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>17.7142857142857</v>
+        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3422,7 +3422,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>16.9333333333333</v>
+        <v>16.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3436,8 +3436,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3851,7 +3851,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f>AVERAGE(D19:D30)</f>
-        <v>15.6666666666667</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3893,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3960,7 +3960,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>17.1666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3971,7 +3971,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D30,D36:D41)</f>
-        <v>15.7333333333333</v>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4299,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C10" formulaRange="1"/>
+    <ignoredError sqref="C10 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4586,7 +4586,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15450" windowHeight="12795" activeTab="4"/>
+    <workbookView windowWidth="18525" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="帝国" sheetId="5" r:id="rId6"/>
     <sheet name="港口" sheetId="6" r:id="rId7"/>
     <sheet name="隐秘" sheetId="7" r:id="rId8"/>
-    <sheet name="禅意谷" sheetId="8" r:id="rId9"/>
+    <sheet name="禅意" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,170 +35,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="87">
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>卡等</t>
+  </si>
+  <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>小计：</t>
+  </si>
+  <si>
+    <t>蓝色卡等：</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>海盗船长</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>蒙面侠客·翔</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>夏日女郎·鲍莉</t>
+  </si>
+  <si>
+    <t>百花长枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>天雷降临·布瑞恩</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>总卡等：</t>
+  </si>
+  <si>
+    <t>黑金勒索者</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>黑旗舰队飞斧手</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
-    <t>费用</t>
-  </si>
-  <si>
-    <t>卡等</t>
-  </si>
-  <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
     <t>蓝色</t>
   </si>
   <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <t>蓝色卡等：</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
+    <t>学仆-观测型</t>
+  </si>
+  <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
+    <t>沉重否定</t>
+  </si>
+  <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>田园守望者</t>
   </si>
   <si>
     <t>紫色</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>海盗船长</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>蒙面侠客·翔</t>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
   </si>
   <si>
     <t>橙色</t>
   </si>
   <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>夏日女郎·鲍莉</t>
-  </si>
-  <si>
-    <t>百花长枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>天雷降临·布瑞恩</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>黑金勒索者</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>黑旗舰队飞斧手</t>
-  </si>
-  <si>
-    <t>春花使者·卡洛琳</t>
-  </si>
-  <si>
-    <t>学仆-观测型</t>
-  </si>
-  <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
-    <t>沉重否定</t>
-  </si>
-  <si>
-    <t>全数否定</t>
-  </si>
-  <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
     <t>月之神·米拉</t>
   </si>
   <si>
@@ -245,6 +248,9 @@
   </si>
   <si>
     <t>萌化术</t>
+  </si>
+  <si>
+    <t>灵龟神丹</t>
   </si>
   <si>
     <t>上宝沁金耙</t>
@@ -1263,19 +1269,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,515 +1292,414 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C12" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>18.8181818181818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
+      <c r="B27" s="2">
+        <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>20</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2">
+        <f>AVERAGE(C18:C27)</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
         <v>14</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <f>AVERAGE(D18:D27)</f>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3">
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B41" s="3">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D33:D41)</f>
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
+        <f>AVERAGE(C33:C41)</f>
         <v>17.4444444444444</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D27,D33:D41)</f>
-        <v>18.4666666666667</v>
+        <v>35</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4">
+        <f>AVERAGE(C2:C12,C18:C27,C33:C41)</f>
+        <v>18.6</v>
       </c>
     </row>
   </sheetData>
@@ -1806,19 +1712,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,515 +1735,414 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C14" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <f>AVERAGE(C2:C14)</f>
+        <v>18.2307692307692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>AVERAGE(D2:D14)</f>
-        <v>18.1538461538462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
+      <c r="B28" s="2">
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>15</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <f>AVERAGE(C20:C28)</f>
+        <v>19.1111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
         <v>14</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <f>AVERAGE(D20:D28)</f>
-        <v>18.8888888888889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D34:D41)</f>
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
+        <f>AVERAGE(C34:C41)</f>
         <v>17.375</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>18.1666666666667</v>
+        <v>35</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4">
+        <f>AVERAGE(C2:C14,C20:C28,C34:C41)</f>
+        <v>18.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2351,8 +2157,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2366,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2391,10 +2197,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2405,10 +2211,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -2419,10 +2225,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -2433,24 +2239,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -2461,10 +2267,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2475,24 +2281,24 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -2503,10 +2309,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -2517,16 +2323,16 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2543,23 +2349,23 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.4545454545455</v>
+        <v>17.7272727272727</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2570,24 +2376,24 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -2601,7 +2407,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -2615,7 +2421,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2626,10 +2432,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -2640,10 +2446,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2654,10 +2460,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -2671,7 +2477,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -2682,10 +2488,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -2699,7 +2505,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -2713,7 +2519,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
@@ -2737,23 +2543,23 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>17.5</v>
+        <v>17.5833333333333</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -2764,10 +2570,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -2778,10 +2584,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -2792,10 +2598,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -2806,10 +2612,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2820,10 +2626,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -2834,10 +2640,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -2860,10 +2666,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -2873,13 +2679,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.5666666666667</v>
+        <v>17.7</v>
       </c>
     </row>
   </sheetData>
@@ -2894,8 +2700,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2909,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2934,10 +2740,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2948,10 +2754,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -2962,10 +2768,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -2976,24 +2782,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -3004,10 +2810,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -3018,24 +2824,24 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -3046,10 +2852,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -3072,23 +2878,23 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3102,7 +2908,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -3116,7 +2922,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3127,10 +2933,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -3141,10 +2947,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -3155,24 +2961,24 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -3183,10 +2989,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -3197,10 +3003,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -3214,7 +3020,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -3225,10 +3031,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -3242,7 +3048,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -3256,7 +3062,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
@@ -3280,23 +3086,23 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D17:D29)</f>
-        <v>16.1538461538462</v>
+        <v>16.2307692307692</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -3307,10 +3113,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -3321,10 +3127,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -3335,10 +3141,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -3349,10 +3155,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -3363,10 +3169,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -3377,10 +3183,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -3403,10 +3209,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -3416,13 +3222,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>16.9666666666667</v>
+        <v>17.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3434,19 +3240,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3456,522 +3263,420 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <f>AVERAGE(C2:C13)</f>
+        <v>15.0833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>15.0833333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
+      <c r="B24" s="2">
+        <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
         <v>19</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>12</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <f>AVERAGE(D19:D30)</f>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2">
+        <f>AVERAGE(C19:C29)</f>
+        <v>16.1818181818182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D36:D41)</f>
-        <v>17.3333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
+        <f>AVERAGE(C35:C41)</f>
+        <v>16.5714285714286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D30,D36:D41)</f>
-        <v>15.8</v>
+        <v>35</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4">
+        <f>AVERAGE(C2:C13,C19:C29,C35:C41)</f>
+        <v>15.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3984,330 +3689,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>18.8333333333333</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
-        <v>19.5714285714286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C25:C30)</f>
-        <v>18.3333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
-        <v>18.9473684210526</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="C10 C36" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -4325,40 +3706,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -4366,99 +3747,99 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+        <f>AVERAGE(C2:C7)</f>
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>17.4444444444444</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -4466,30 +3847,36 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -4497,97 +3884,138 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C16:C18)</f>
-        <v>17.6666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>16</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C13:C19)</f>
+        <v>19.7142857142857</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>15.6666666666667</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
-        <v>17.1333333333333</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C25:C30)</f>
+        <v>18.3333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
+        <v>19.0526315789474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C10 C36" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4602,209 +4030,209 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>15.8</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>17.5555555555556</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C16:C18)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
         <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C12:C20)</f>
-        <v>14.5555555555556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4815,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4830,26 +4258,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>15</v>
+        <f>AVERAGE(C24:C26)</f>
+        <v>15.6666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>15</v>
+        <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
+        <v>17.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4858,13 +4286,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4879,37 +4307,314 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>16.2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C12:C20)</f>
+        <v>14.6666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4920,7 +4625,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4931,7 +4636,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4942,7 +4647,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -4953,7 +4658,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -4964,7 +4669,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -4985,10 +4690,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
@@ -4998,7 +4703,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -5009,7 +4714,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -5020,7 +4725,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -5031,7 +4736,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -5042,7 +4747,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -5052,15 +4757,9 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -5068,25 +4767,31 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C15:C19)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -5107,25 +4812,25 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
+        <f>AVERAGE(C25:C26)</f>
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
+        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
         <v>12.4</v>
       </c>
     </row>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="18525" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="88">
   <si>
     <t>名称</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1714,7 +1717,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2157,7 +2160,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2700,7 +2703,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -3242,7 +3245,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3690,7 +3693,7 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4004,7 +4007,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C10 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4014,7 +4017,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -4291,7 +4294,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4568,8 +4571,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4827,7 +4830,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="14145" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="89">
   <si>
     <t>名称</t>
   </si>
@@ -97,12 +97,12 @@
     <t>圣殿骑士</t>
   </si>
   <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
     <t>海盗船长</t>
   </si>
   <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
     <t>黑金诈术师</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>苦行武僧</t>
+  </si>
+  <si>
+    <t>太极剑法</t>
   </si>
   <si>
     <t>龟族僧人</t>
@@ -1274,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1513,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1524,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1569,7 +1572,7 @@
       </c>
       <c r="C30" s="2">
         <f>AVERAGE(C18:C27)</f>
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1602,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1690,7 +1693,7 @@
       </c>
       <c r="C44" s="3">
         <f>AVERAGE(C33:C41)</f>
-        <v>17.4444444444444</v>
+        <v>17.5555555555556</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1702,7 +1705,7 @@
       </c>
       <c r="C47" s="4">
         <f>AVERAGE(C2:C12,C18:C27,C33:C41)</f>
-        <v>18.6</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1717,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1972,18 +1975,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -2023,7 +2026,7 @@
       </c>
       <c r="C31" s="2">
         <f>AVERAGE(C20:C28)</f>
-        <v>19.1111111111111</v>
+        <v>19.2222222222222</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2056,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2133,7 +2136,7 @@
       </c>
       <c r="C44" s="3">
         <f>AVERAGE(C34:C41)</f>
-        <v>17.375</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2145,7 +2148,7 @@
       </c>
       <c r="C47" s="4">
         <f>AVERAGE(C2:C14,C20:C28,C34:C41)</f>
-        <v>18.2666666666667</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2164,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -2472,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2514,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2554,7 +2557,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D18:D29)</f>
-        <v>17.5833333333333</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2688,7 +2691,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.7</v>
+        <v>17.7666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2703,8 +2706,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -3015,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3043,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3057,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3097,7 +3100,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D17:D29)</f>
-        <v>16.2307692307692</v>
+        <v>16.4615384615385</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3231,7 +3234,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17.0666666666667</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3245,8 +3248,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3302,18 +3305,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -3324,13 +3327,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3341,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3357,7 +3360,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -3371,10 +3374,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3390,19 +3393,25 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
@@ -3410,45 +3419,39 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <f>AVERAGE(C2:C13)</f>
-        <v>15.0833333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>19</v>
+      <c r="C17" s="1">
+        <f>AVERAGE(C2:C14)</f>
+        <v>14.8461538461538</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -3456,48 +3459,47 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3515,7 +3517,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -3527,7 +3529,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -3567,8 +3569,8 @@
         <v>24</v>
       </c>
       <c r="C32" s="2">
-        <f>AVERAGE(C19:C29)</f>
-        <v>16.1818181818182</v>
+        <f>AVERAGE(C20:C29)</f>
+        <v>16.7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3584,7 +3586,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -3617,7 +3619,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -3678,8 +3680,8 @@
         <v>36</v>
       </c>
       <c r="C47" s="4">
-        <f>AVERAGE(C2:C13,C19:C29,C35:C41)</f>
-        <v>15.8333333333333</v>
+        <f>AVERAGE(C2:C14,C20:C29,C35:C41)</f>
+        <v>15.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3693,8 +3695,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3861,13 +3863,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3900,12 +3902,12 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>19.7142857142857</v>
+        <v>19.8571428571429</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -3916,7 +3918,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -3927,7 +3929,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -3938,7 +3940,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -3949,7 +3951,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
@@ -3960,7 +3962,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -3996,18 +3998,18 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
-        <v>19.0526315789474</v>
+        <v>19.1052631578947</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C10" formulaRange="1"/>
+    <ignoredError sqref="C10 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4017,8 +4019,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4174,7 +4176,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4218,7 +4220,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -4229,18 +4231,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -4268,7 +4270,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
-        <v>15.6666666666667</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4276,11 +4278,11 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
-        <v>17.2666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4297,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4468,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4479,7 +4481,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4512,12 +4514,12 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>14.6666666666667</v>
+        <v>14.8888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -4553,11 +4555,11 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>15.2</v>
+        <v>15.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4571,8 +4573,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4620,10 +4622,10 @@
         <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4634,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4650,7 +4652,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -4664,10 +4666,10 @@
         <v>65</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4682,45 +4684,45 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>12.75</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>12.6666666666667</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
@@ -4739,7 +4741,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -4750,7 +4752,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -4777,13 +4779,13 @@
         <v>24</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
+        <f>AVERAGE(C16:C19)</f>
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -4794,7 +4796,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -4830,10 +4832,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
         <v>12.4</v>
       </c>
     </row>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="11670" activeTab="4"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3248,7 +3248,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3696,7 +3696,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3758,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3802,13 +3802,13 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>19</v>
+        <v>19.1666666666667</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -3819,13 +3819,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>19.8571428571429</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3946,7 +3946,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3957,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>18.3333333333333</v>
+        <v>18.8333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4002,14 +4002,14 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
-        <v>19.1052631578947</v>
+        <v>19.3684210526316</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C10 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4019,7 +4019,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -4297,7 +4297,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4337,7 +4337,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>15.3333333333333</v>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>
@@ -4573,7 +4573,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
     <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
   </si>
   <si>
     <t>圣殿御卫</t>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>19</v>
+        <v>19.0909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C30" s="2">
         <f>AVERAGE(C18:C27)</f>
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1594,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1638,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1660,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="C44" s="3">
         <f>AVERAGE(C33:C41)</f>
-        <v>17.5555555555556</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C47" s="4">
         <f>AVERAGE(C2:C12,C18:C27,C33:C41)</f>
-        <v>18.6666666666667</v>
+        <v>18.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1720,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C17" s="1">
         <f>AVERAGE(C2:C14)</f>
-        <v>18.2307692307692</v>
+        <v>18.3076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="C31" s="2">
         <f>AVERAGE(C20:C28)</f>
-        <v>19.2222222222222</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C44" s="3">
         <f>AVERAGE(C34:C41)</f>
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C47" s="4">
         <f>AVERAGE(C2:C14,C20:C28,C34:C41)</f>
-        <v>18.3333333333333</v>
+        <v>18.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -4009,7 +4009,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C10" formulaRange="1"/>
+    <ignoredError sqref="C10 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4020,7 +4020,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>17.5555555555556</v>
+        <v>17.6666666666667</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
-        <v>16</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
-        <v>17.3333333333333</v>
+        <v>17.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4573,7 +4573,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="17220" windowHeight="9705" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -1720,7 +1720,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3696,7 +3696,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3758,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3769,7 +3769,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>19.1666666666667</v>
+        <v>19.6666666666667</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -4002,14 +4002,14 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C30)</f>
-        <v>19.3684210526316</v>
+        <v>19.5263157894737</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C10 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4020,7 +4020,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4137,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>17.6666666666667</v>
+        <v>17.7777777777778</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
-        <v>17.4666666666667</v>
+        <v>17.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4296,8 +4296,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4415,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4492,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>14.8888888888889</v>
+        <v>15.2222222222222</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4525,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>15.4</v>
+        <v>15.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4574,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4619,29 +4619,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>12.6666666666667</v>
+        <v>12.7777777777778</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>12.4</v>
+        <v>12.4666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="10620" activeTab="4"/>
+    <workbookView windowWidth="9735" windowHeight="11265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>名称</t>
   </si>
@@ -84,9 +84,6 @@
     <t>炽阳坠落</t>
   </si>
   <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>不法交易</t>
   </si>
   <si>
-    <t>黑旗舰队飞斧手</t>
-  </si>
-  <si>
     <t>海燕精卫</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
     <t>海燕·鲍莉</t>
   </si>
   <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
     <t>钢之咆哮·布瑞恩</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
     <t>全数否定</t>
   </si>
   <si>
+    <t>学仆-能源型</t>
+  </si>
+  <si>
     <t>破魔系教授</t>
   </si>
   <si>
@@ -186,9 +186,6 @@
     <t>缄言法师</t>
   </si>
   <si>
-    <t>魔像-御咒铁卫</t>
-  </si>
-  <si>
     <t>幻域秘树</t>
   </si>
   <si>
@@ -216,10 +213,10 @@
     <t>太极剑法</t>
   </si>
   <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
     <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
   </si>
   <si>
     <t>连击</t>
@@ -1253,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1429,19 +1426,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1449,20 +1440,26 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>19.7142857142857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C12:C19)</f>
-        <v>19.375</v>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1470,10 +1467,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1484,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1492,10 +1489,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1503,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4">
         <v>20</v>
@@ -1514,22 +1511,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="4">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4">
-        <v>18</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4"/>
@@ -1537,39 +1528,34 @@
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C24:C29)</f>
+        <v>19.3333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C25:C30)</f>
-        <v>19.1666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="5">
-        <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>19.4736842105263</v>
+      <c r="C35" s="5">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
+        <v>19.6666666666667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C36" formulaRange="1"/>
+    <ignoredError sqref="C35 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1579,8 +1565,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1603,7 +1589,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1614,7 +1600,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1625,7 +1611,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1636,7 +1622,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1647,18 +1633,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1669,7 +1655,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1680,7 +1666,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1690,71 +1676,65 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>18</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>17.7777777777778</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1762,47 +1742,53 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C15:C17)</f>
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C16:C18)</f>
-        <v>18</v>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4">
         <v>5</v>
@@ -1826,23 +1812,23 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4">
-        <f>AVERAGE(C24:C26)</f>
-        <v>16.3333333333333</v>
+        <f>AVERAGE(C23:C26)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5">
-        <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
-        <v>17.5333333333333</v>
+        <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1843,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1880,7 +1866,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1891,7 +1877,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1902,7 +1888,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1913,7 +1899,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1924,129 +1910,129 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>16.8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16</v>
-      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>16.5</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
@@ -2070,16 +2056,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C12:C20)</f>
-        <v>15.4444444444444</v>
+        <f>AVERAGE(C13:C20)</f>
+        <v>16.25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4">
         <v>5</v>
@@ -2103,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4">
         <f>AVERAGE(C26:C26)</f>
@@ -2112,14 +2098,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="5">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>15.9333333333333</v>
+        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
+        <v>16.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2133,8 +2119,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2157,29 +2143,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2190,40 +2176,40 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2234,18 +2220,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -2273,35 +2259,35 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>12.6666666666667</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2312,7 +2298,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2336,16 +2322,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C16:C19)</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
@@ -2356,7 +2342,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="4">
         <v>4</v>
@@ -2380,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4">
         <f>AVERAGE(C25:C26)</f>
@@ -2389,14 +2375,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>12.4</v>
+        <v>13.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2410,8 +2396,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2445,7 +2431,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2456,7 +2442,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2467,7 +2453,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2478,7 +2464,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -2500,7 +2486,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2511,7 +2497,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -2522,7 +2508,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2533,19 +2519,25 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
@@ -2553,31 +2545,25 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>19.2727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2588,10 +2574,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
@@ -2599,7 +2585,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -2610,10 +2596,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -2621,7 +2607,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -2632,10 +2618,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <v>20</v>
@@ -2643,18 +2629,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -2671,21 +2657,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
@@ -2693,20 +2672,26 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
-        <f>AVERAGE(C17:C27)</f>
-        <v>19</v>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <f>AVERAGE(C18:C26)</f>
+        <v>19.3333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2714,10 +2699,10 @@
         <v>73</v>
       </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2728,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2736,10 +2721,10 @@
         <v>75</v>
       </c>
       <c r="B35" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2750,23 +2735,23 @@
         <v>4</v>
       </c>
       <c r="C36" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -2777,7 +2762,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="4">
         <v>5</v>
@@ -2788,7 +2773,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -2799,7 +2784,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4">
         <v>8</v>
@@ -2823,23 +2808,23 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="4">
-        <f>AVERAGE(C33:C41)</f>
-        <v>18.2222222222222</v>
+        <f>AVERAGE(C32:C41)</f>
+        <v>18.2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="5">
-        <f>AVERAGE(C2:C11,C17:C27,C33:C41)</f>
-        <v>18.8333333333333</v>
+        <f>AVERAGE(C2:C12,C18:C26,C32:C41)</f>
+        <v>18.9333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9735" windowHeight="11265" activeTab="3"/>
+    <workbookView windowWidth="12330" windowHeight="10920" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>名称</t>
   </si>
@@ -204,43 +204,22 @@
     <t>隐秘卡等：</t>
   </si>
   <si>
-    <t>苦行武僧</t>
-  </si>
-  <si>
-    <t>拒马</t>
-  </si>
-  <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>龟族僧人</t>
+    <t>飓风术</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
-    <t>风铃道人</t>
+    <t>铁山靠</t>
   </si>
   <si>
     <t>风卷残云</t>
   </si>
   <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
     <t>蟠桃会</t>
   </si>
   <si>
-    <t>萌化术</t>
-  </si>
-  <si>
-    <t>灵龟神丹</t>
+    <t>泰山之力</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -1253,7 +1232,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1426,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1448,7 +1427,7 @@
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C12:C18)</f>
-        <v>19.7142857142857</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1514,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1536,7 +1515,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C24:C29)</f>
-        <v>19.3333333333333</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1548,14 +1527,14 @@
       </c>
       <c r="C35" s="5">
         <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>19.6666666666667</v>
+        <v>19.8333333333333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C35 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1565,8 +1544,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1639,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1694,7 +1673,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>18</v>
+        <v>18.125</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1794,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1816,7 +1795,7 @@
       </c>
       <c r="C29" s="4">
         <f>AVERAGE(C23:C26)</f>
-        <v>16.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1828,7 +1807,7 @@
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
-        <v>17.6</v>
+        <v>17.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2098,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2149,23 +2128,23 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2176,129 +2155,129 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>14</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
+      <c r="C16" s="1">
+        <f>AVERAGE(C2:C13)</f>
+        <v>12.3333333333333</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2308,9 +2287,15 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2318,31 +2303,25 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C16:C19)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="C23" s="2">
+        <f>AVERAGE(C19:C20)</f>
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4">
         <v>4</v>
@@ -2369,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="4">
-        <f>AVERAGE(C25:C26)</f>
+        <f>AVERAGE(C26:C26)</f>
         <v>12</v>
       </c>
     </row>
@@ -2378,11 +2357,11 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>13.3333333333333</v>
+        <f>AVERAGE(C2:C13,C19:C20,C26:C26)</f>
+        <v>12.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2396,8 +2375,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2657,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -2680,12 +2659,12 @@
       </c>
       <c r="C29" s="2">
         <f>AVERAGE(C18:C26)</f>
-        <v>19.3333333333333</v>
+        <v>19.5555555555556</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
@@ -2696,7 +2675,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
@@ -2707,7 +2686,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4">
         <v>3</v>
@@ -2718,7 +2697,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4">
         <v>4</v>
@@ -2729,7 +2708,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B36" s="4">
         <v>4</v>
@@ -2751,7 +2730,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -2762,18 +2741,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B39" s="4">
         <v>5</v>
       </c>
       <c r="C39" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -2784,13 +2763,13 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B41" s="4">
         <v>8</v>
       </c>
       <c r="C41" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2812,7 +2791,7 @@
       </c>
       <c r="C44" s="4">
         <f>AVERAGE(C32:C41)</f>
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2820,11 +2799,11 @@
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C47" s="5">
         <f>AVERAGE(C2:C12,C18:C26,C32:C41)</f>
-        <v>18.9333333333333</v>
+        <v>19.0666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12330" windowHeight="10920" activeTab="4"/>
+    <workbookView windowWidth="10800" windowHeight="10875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -48,12 +48,12 @@
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>增援战线</t>
+  </si>
+  <si>
     <t>田园守望者</t>
   </si>
   <si>
-    <t>增援战线</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -171,7 +171,10 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>学仆-能源型</t>
+    <t>占卜命运</t>
+  </si>
+  <si>
+    <t>隐形术</t>
   </si>
   <si>
     <t>破魔系教授</t>
@@ -181,9 +184,6 @@
   </si>
   <si>
     <t>学仆-脉冲型</t>
-  </si>
-  <si>
-    <t>缄言法师</t>
   </si>
   <si>
     <t>幻域秘树</t>
@@ -1232,596 +1232,6 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>20</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="4">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C24:C29)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>19.8333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="C9 C35" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>18.125</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C15:C17)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4">
-        <f>AVERAGE(C23:C26)</f>
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="5">
-        <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
-        <v>17.7333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1845,75 +1255,665 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>21</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>20.5714285714286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C24:C29)</f>
+        <v>19.8333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
+        <v>20.4444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C35 C9" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>18.625</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C15:C17)</f>
+        <v>18.6666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4">
+        <f>AVERAGE(C23:C26)</f>
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5">
+        <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
+        <v>18.1333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
@@ -1937,10 +1937,10 @@
         <v>47</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1959,10 +1959,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C13:C20)</f>
-        <v>16.25</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>16.3333333333333</v>
+        <v>16.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2375,8 +2375,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2460,34 +2460,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>19.2727272727273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="C29" s="2">
         <f>AVERAGE(C18:C26)</f>
-        <v>19.5555555555556</v>
+        <v>20.2222222222222</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C44" s="4">
         <f>AVERAGE(C32:C41)</f>
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C47" s="5">
         <f>AVERAGE(C2:C12,C18:C26,C32:C41)</f>
-        <v>19.0666666666667</v>
+        <v>19.6</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/xingkong/zz_xk_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="10875" activeTab="2"/>
+    <workbookView windowWidth="12555" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>圣殿斥候</t>
   </si>
   <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
     <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>增援战线</t>
   </si>
   <si>
     <t>田园守望者</t>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>22</v>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C12:C18)</f>
-        <v>20.5714285714286</v>
+        <v>20.8571428571429</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C24:C29)</f>
-        <v>19.8333333333333</v>
+        <v>20.1666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1527,14 +1527,14 @@
       </c>
       <c r="C35" s="5">
         <f>AVERAGE(C2:C6,C12:C18,C24:C29)</f>
-        <v>20.4444444444444</v>
+        <v>20.7222222222222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C35 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1544,8 +1544,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>18.625</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C20" s="2">
         <f>AVERAGE(C15:C17)</f>
-        <v>18.6666666666667</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C29" s="4">
         <f>AVERAGE(C23:C26)</f>
-        <v>16.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C9,C15:C17,C23:C26)</f>
-        <v>18.1333333333333</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1821,8 +1821,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1851,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>16.5</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C13:C20)</f>
-        <v>15.75</v>
+        <v>15.875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>16.0666666666667</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2172,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C16" s="1">
         <f>AVERAGE(C2:C13)</f>
-        <v>12.3333333333333</v>
+        <v>12.4166666666667</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C32" s="5">
         <f>AVERAGE(C2:C13,C19:C20,C26:C26)</f>
-        <v>12.2666666666667</v>
+        <v>12.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2375,8 +2375,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2432,40 +2432,40 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -2487,18 +2487,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>20</v>
+        <v>20.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2614,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2625,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="C29" s="2">
         <f>AVERAGE(C18:C26)</f>
-        <v>20.2222222222222</v>
+        <v>20.5555555555556</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2758,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C44" s="4">
         <f>AVERAGE(C32:C41)</f>
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C47" s="5">
         <f>AVERAGE(C2:C12,C18:C26,C32:C41)</f>
-        <v>19.6</v>
+        <v>20.0666666666667</v>
       </c>
     </row>
   </sheetData>
